--- a/Code/Results/Cases/Case_1_70/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_70/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9998168464793286</v>
+        <v>1.027772848844516</v>
       </c>
       <c r="D2">
-        <v>1.031161172152431</v>
+        <v>1.03241419393604</v>
       </c>
       <c r="E2">
-        <v>1.012581471836579</v>
+        <v>1.036476268768222</v>
       </c>
       <c r="F2">
-        <v>1.014939277531429</v>
+        <v>1.044259761674375</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048179834016747</v>
+        <v>1.034809181180663</v>
       </c>
       <c r="J2">
-        <v>1.022003037017076</v>
+        <v>1.032928861695017</v>
       </c>
       <c r="K2">
-        <v>1.042202803232243</v>
+        <v>1.035219493614367</v>
       </c>
       <c r="L2">
-        <v>1.023868265916685</v>
+        <v>1.039269901277221</v>
       </c>
       <c r="M2">
-        <v>1.026194335118062</v>
+        <v>1.047031313507817</v>
       </c>
       <c r="N2">
-        <v>1.01128677621193</v>
+        <v>1.014996663321528</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003809836911264</v>
+        <v>1.028616961481953</v>
       </c>
       <c r="D3">
-        <v>1.033383396656799</v>
+        <v>1.032872608063823</v>
       </c>
       <c r="E3">
-        <v>1.016019787000013</v>
+        <v>1.037260420819911</v>
       </c>
       <c r="F3">
-        <v>1.019020384974377</v>
+        <v>1.045205447183924</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049198557953362</v>
+        <v>1.034955026496421</v>
       </c>
       <c r="J3">
-        <v>1.024197178016039</v>
+        <v>1.033413842314216</v>
       </c>
       <c r="K3">
-        <v>1.043606231474199</v>
+        <v>1.035487612770188</v>
       </c>
       <c r="L3">
-        <v>1.026451714161054</v>
+        <v>1.039863730229342</v>
       </c>
       <c r="M3">
-        <v>1.029415545958473</v>
+        <v>1.047787849765716</v>
       </c>
       <c r="N3">
-        <v>1.012019599697081</v>
+        <v>1.015157899109492</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006343937856031</v>
+        <v>1.029163582686708</v>
       </c>
       <c r="D4">
-        <v>1.03479467583263</v>
+        <v>1.033169167823498</v>
       </c>
       <c r="E4">
-        <v>1.018207845468704</v>
+        <v>1.037768653031377</v>
       </c>
       <c r="F4">
-        <v>1.021618009391754</v>
+        <v>1.045818547608878</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049833518924473</v>
+        <v>1.035048005445274</v>
       </c>
       <c r="J4">
-        <v>1.025586745496128</v>
+        <v>1.033727434590059</v>
       </c>
       <c r="K4">
-        <v>1.04449054133655</v>
+        <v>1.035660312548436</v>
       </c>
       <c r="L4">
-        <v>1.028091374413669</v>
+        <v>1.040248153200057</v>
       </c>
       <c r="M4">
-        <v>1.031462341682016</v>
+        <v>1.048277933184906</v>
       </c>
       <c r="N4">
-        <v>1.012483625539726</v>
+        <v>1.015262127956719</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007397766367284</v>
+        <v>1.029393482237638</v>
       </c>
       <c r="D5">
-        <v>1.035381725246945</v>
+        <v>1.033293824113352</v>
       </c>
       <c r="E5">
-        <v>1.019119173522091</v>
+        <v>1.037982511688944</v>
       </c>
       <c r="F5">
-        <v>1.022700063280156</v>
+        <v>1.046076575488493</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050094748982404</v>
+        <v>1.035086759504164</v>
       </c>
       <c r="J5">
-        <v>1.026163880877007</v>
+        <v>1.033859214299629</v>
       </c>
       <c r="K5">
-        <v>1.044856705301604</v>
+        <v>1.035732724825057</v>
       </c>
       <c r="L5">
-        <v>1.028773239741248</v>
+        <v>1.040409805400067</v>
       </c>
       <c r="M5">
-        <v>1.032314094596993</v>
+        <v>1.048484095337457</v>
       </c>
       <c r="N5">
-        <v>1.012676330963518</v>
+        <v>1.015305921036701</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007574044572101</v>
+        <v>1.029432089204633</v>
       </c>
       <c r="D6">
-        <v>1.035479930390404</v>
+        <v>1.033314753374892</v>
       </c>
       <c r="E6">
-        <v>1.019271696816185</v>
+        <v>1.038018431050853</v>
       </c>
       <c r="F6">
-        <v>1.022881168746008</v>
+        <v>1.046119915901433</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050138278534942</v>
+        <v>1.035093246852837</v>
       </c>
       <c r="J6">
-        <v>1.026260377009863</v>
+        <v>1.033881337463225</v>
       </c>
       <c r="K6">
-        <v>1.044917860238405</v>
+        <v>1.035744871944146</v>
       </c>
       <c r="L6">
-        <v>1.028887297228981</v>
+        <v>1.040436949868474</v>
       </c>
       <c r="M6">
-        <v>1.032456603886537</v>
+        <v>1.048518718512773</v>
       </c>
       <c r="N6">
-        <v>1.012708549743278</v>
+        <v>1.01531327262497</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006358063896898</v>
+        <v>1.029166654224695</v>
       </c>
       <c r="D7">
-        <v>1.034802544417246</v>
+        <v>1.033170833557864</v>
       </c>
       <c r="E7">
-        <v>1.018220055853947</v>
+        <v>1.03777150984598</v>
       </c>
       <c r="F7">
-        <v>1.02163250665628</v>
+        <v>1.045821994290162</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049837031801709</v>
+        <v>1.035048524593534</v>
       </c>
       <c r="J7">
-        <v>1.025594484620949</v>
+        <v>1.033729195652562</v>
       </c>
       <c r="K7">
-        <v>1.044495455913315</v>
+        <v>1.035661280875803</v>
       </c>
       <c r="L7">
-        <v>1.028100514519404</v>
+        <v>1.040250313046092</v>
       </c>
       <c r="M7">
-        <v>1.031473756762808</v>
+        <v>1.048280687420512</v>
       </c>
       <c r="N7">
-        <v>1.012486209716228</v>
+        <v>1.0152627132197</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001176803445019</v>
+        <v>1.028058032002591</v>
       </c>
       <c r="D8">
-        <v>1.031917779553685</v>
+        <v>1.032569129414199</v>
       </c>
       <c r="E8">
-        <v>1.013751243921142</v>
+        <v>1.036741103053617</v>
       </c>
       <c r="F8">
-        <v>1.01632764368679</v>
+        <v>1.044579115438718</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048529188065731</v>
+        <v>1.034858758137451</v>
       </c>
       <c r="J8">
-        <v>1.0227509241236</v>
+        <v>1.03309280854505</v>
       </c>
       <c r="K8">
-        <v>1.042682087418317</v>
+        <v>1.035310268799668</v>
       </c>
       <c r="L8">
-        <v>1.024748112688449</v>
+        <v>1.039470551321519</v>
       </c>
       <c r="M8">
-        <v>1.02729089700959</v>
+        <v>1.047286872883848</v>
       </c>
       <c r="N8">
-        <v>1.011536578814203</v>
+        <v>1.015051174466124</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9916489529854002</v>
+        <v>1.026107809944087</v>
       </c>
       <c r="D9">
-        <v>1.026624358142826</v>
+        <v>1.031508437500422</v>
       </c>
       <c r="E9">
-        <v>1.005582394699164</v>
+        <v>1.034931851745287</v>
       </c>
       <c r="F9">
-        <v>1.006633625982476</v>
+        <v>1.04239810700035</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04603476746988</v>
+        <v>1.034513737184858</v>
       </c>
       <c r="J9">
-        <v>1.017500094380942</v>
+        <v>1.031969760662109</v>
       </c>
       <c r="K9">
-        <v>1.039299753154235</v>
+        <v>1.034685737287288</v>
       </c>
       <c r="L9">
-        <v>1.018585546103861</v>
+        <v>1.038097917901567</v>
       </c>
       <c r="M9">
-        <v>1.019619986325564</v>
+        <v>1.045539953623766</v>
       </c>
       <c r="N9">
-        <v>1.009782496937911</v>
+        <v>1.014677657871808</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9850034349145377</v>
+        <v>1.024809976376596</v>
       </c>
       <c r="D10">
-        <v>1.022945329275076</v>
+        <v>1.030801145996034</v>
       </c>
       <c r="E10">
-        <v>0.9999199844514239</v>
+        <v>1.033730125511061</v>
       </c>
       <c r="F10">
-        <v>0.9999147859303007</v>
+        <v>1.040950323381812</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044237777183084</v>
+        <v>1.034276629016784</v>
       </c>
       <c r="J10">
-        <v>1.013824947864108</v>
+        <v>1.031220021493878</v>
       </c>
       <c r="K10">
-        <v>1.036912299134186</v>
+        <v>1.0342654228818</v>
       </c>
       <c r="L10">
-        <v>1.014290683754005</v>
+        <v>1.037183853731219</v>
       </c>
       <c r="M10">
-        <v>1.014285579113951</v>
+        <v>1.044378327774678</v>
       </c>
       <c r="N10">
-        <v>1.008554560760294</v>
+        <v>1.014428162516623</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9820499363378541</v>
+        <v>1.02424856737909</v>
       </c>
       <c r="D11">
-        <v>1.021314572195589</v>
+        <v>1.03049486620263</v>
       </c>
       <c r="E11">
-        <v>0.9974122827163601</v>
+        <v>1.033210839209928</v>
       </c>
       <c r="F11">
-        <v>0.9969390996855627</v>
+        <v>1.040324914207925</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043426326590556</v>
+        <v>1.0341722867394</v>
       </c>
       <c r="J11">
-        <v>1.012189005957203</v>
+        <v>1.03089514411232</v>
       </c>
       <c r="K11">
-        <v>1.03584541828983</v>
+        <v>1.034082498906558</v>
       </c>
       <c r="L11">
-        <v>1.012383165149984</v>
+        <v>1.036788313539685</v>
       </c>
       <c r="M11">
-        <v>1.011918971883162</v>
+        <v>1.043876058288975</v>
       </c>
       <c r="N11">
-        <v>1.00800793730016</v>
+        <v>1.014320018762774</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9809408926494382</v>
+        <v>1.024040120890731</v>
       </c>
       <c r="D12">
-        <v>1.020702979929465</v>
+        <v>1.030381099508879</v>
       </c>
       <c r="E12">
-        <v>0.9964720152191391</v>
+        <v>1.033018115466568</v>
       </c>
       <c r="F12">
-        <v>0.995823314332129</v>
+        <v>1.040092835066327</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043119767564702</v>
+        <v>1.03413327889193</v>
       </c>
       <c r="J12">
-        <v>1.011574359271767</v>
+        <v>1.030774436000151</v>
       </c>
       <c r="K12">
-        <v>1.035444008870595</v>
+        <v>1.034014415105991</v>
       </c>
       <c r="L12">
-        <v>1.011667119419342</v>
+        <v>1.036641432035025</v>
       </c>
       <c r="M12">
-        <v>1.011030972907586</v>
+        <v>1.043689603045707</v>
       </c>
       <c r="N12">
-        <v>1.007802561901519</v>
+        <v>1.014279833165258</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9811793381320008</v>
+        <v>1.024084829463673</v>
       </c>
       <c r="D13">
-        <v>1.020834436741066</v>
+        <v>1.030405502853239</v>
       </c>
       <c r="E13">
-        <v>0.9966741105890177</v>
+        <v>1.033059447991714</v>
       </c>
       <c r="F13">
-        <v>0.9960631369799687</v>
+        <v>1.040142606590366</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04318576092983</v>
+        <v>1.034141657528723</v>
       </c>
       <c r="J13">
-        <v>1.011706523971915</v>
+        <v>1.030800329828167</v>
       </c>
       <c r="K13">
-        <v>1.035530346855742</v>
+        <v>1.034029025522518</v>
       </c>
       <c r="L13">
-        <v>1.011821058863334</v>
+        <v>1.036672936797002</v>
       </c>
       <c r="M13">
-        <v>1.011221862854472</v>
+        <v>1.043729593326032</v>
       </c>
       <c r="N13">
-        <v>1.007846722858944</v>
+        <v>1.014288453838222</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9819585103269273</v>
+        <v>1.024231335368438</v>
       </c>
       <c r="D14">
-        <v>1.021264138397272</v>
+        <v>1.030485462216124</v>
       </c>
       <c r="E14">
-        <v>0.9973347417691568</v>
+        <v>1.033194905284325</v>
       </c>
       <c r="F14">
-        <v>0.9968470854257249</v>
+        <v>1.040305725860131</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043401092232597</v>
+        <v>1.034169067443355</v>
       </c>
       <c r="J14">
-        <v>1.012138343287846</v>
+        <v>1.030885167032736</v>
       </c>
       <c r="K14">
-        <v>1.035812343054434</v>
+        <v>1.034076873879793</v>
       </c>
       <c r="L14">
-        <v>1.012324131703112</v>
+        <v>1.036776171450446</v>
       </c>
       <c r="M14">
-        <v>1.011845754331318</v>
+        <v>1.043860643587556</v>
       </c>
       <c r="N14">
-        <v>1.007991009103412</v>
+        <v>1.014316697336596</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9824369784462174</v>
+        <v>1.02432161390577</v>
       </c>
       <c r="D15">
-        <v>1.021528109853035</v>
+        <v>1.030534727778472</v>
       </c>
       <c r="E15">
-        <v>0.9977406004099509</v>
+        <v>1.033278386551201</v>
       </c>
       <c r="F15">
-        <v>0.9973286970751796</v>
+        <v>1.040406258980832</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043533078149912</v>
+        <v>1.034185922430823</v>
       </c>
       <c r="J15">
-        <v>1.012403466938208</v>
+        <v>1.030937433539406</v>
       </c>
       <c r="K15">
-        <v>1.035985406824582</v>
+        <v>1.034106336624914</v>
       </c>
       <c r="L15">
-        <v>1.01263308650099</v>
+        <v>1.036839783032478</v>
       </c>
       <c r="M15">
-        <v>1.012228957833829</v>
+        <v>1.043941402601064</v>
       </c>
       <c r="N15">
-        <v>1.008079596295733</v>
+        <v>1.014334096955231</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9851978007241274</v>
+        <v>1.024847247196788</v>
       </c>
       <c r="D16">
-        <v>1.023052746657231</v>
+        <v>1.03082147256653</v>
       </c>
       <c r="E16">
-        <v>1.000085201753958</v>
+        <v>1.033764611501533</v>
       </c>
       <c r="F16">
-        <v>1.000110830996986</v>
+        <v>1.04099186128221</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044290916179862</v>
+        <v>1.034283518697185</v>
       </c>
       <c r="J16">
-        <v>1.013932556568586</v>
+        <v>1.03124157767697</v>
       </c>
       <c r="K16">
-        <v>1.036982394585341</v>
+        <v>1.034277543563697</v>
       </c>
       <c r="L16">
-        <v>1.014416244805125</v>
+        <v>1.037210109930252</v>
       </c>
       <c r="M16">
-        <v>1.014441412782464</v>
+        <v>1.044411677090403</v>
       </c>
       <c r="N16">
-        <v>1.00859051616644</v>
+        <v>1.014435337367254</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9869088656171908</v>
+        <v>1.025177114426662</v>
       </c>
       <c r="D17">
-        <v>1.023998882943317</v>
+        <v>1.031001336581337</v>
       </c>
       <c r="E17">
-        <v>1.001540679014266</v>
+        <v>1.034069894986957</v>
       </c>
       <c r="F17">
-        <v>1.001837867056416</v>
+        <v>1.041359594442688</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044757264591228</v>
+        <v>1.034344290981414</v>
       </c>
       <c r="J17">
-        <v>1.014879581497867</v>
+        <v>1.031432297072347</v>
       </c>
       <c r="K17">
-        <v>1.037598814480168</v>
+        <v>1.034384690398811</v>
       </c>
       <c r="L17">
-        <v>1.015521748366121</v>
+        <v>1.037442475586061</v>
       </c>
       <c r="M17">
-        <v>1.015813748361336</v>
+        <v>1.044706862264334</v>
       </c>
       <c r="N17">
-        <v>1.008906944113229</v>
+        <v>1.014498813488832</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9878996137411935</v>
+        <v>1.025369574480304</v>
       </c>
       <c r="D18">
-        <v>1.024547122858779</v>
+        <v>1.031106246360416</v>
       </c>
       <c r="E18">
-        <v>1.002384275124794</v>
+        <v>1.034248064717185</v>
       </c>
       <c r="F18">
-        <v>1.002838848863528</v>
+        <v>1.041574230688373</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045026070682906</v>
+        <v>1.034379576961378</v>
       </c>
       <c r="J18">
-        <v>1.015427684199645</v>
+        <v>1.031543517680019</v>
       </c>
       <c r="K18">
-        <v>1.037955178925926</v>
+        <v>1.034447097993535</v>
       </c>
       <c r="L18">
-        <v>1.016161979399361</v>
+        <v>1.037578035116905</v>
       </c>
       <c r="M18">
-        <v>1.016608759342271</v>
+        <v>1.044879108360109</v>
       </c>
       <c r="N18">
-        <v>1.009090078341843</v>
+        <v>1.014535827334923</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9882362140428087</v>
+        <v>1.025435207513673</v>
       </c>
       <c r="D19">
-        <v>1.024733449186622</v>
+        <v>1.031142017509452</v>
       </c>
       <c r="E19">
-        <v>1.00267102252557</v>
+        <v>1.034308833416449</v>
       </c>
       <c r="F19">
-        <v>1.003179092450568</v>
+        <v>1.041647440425863</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045117186779853</v>
+        <v>1.034391581155457</v>
       </c>
       <c r="J19">
-        <v>1.01561385538118</v>
+        <v>1.031581437131885</v>
       </c>
       <c r="K19">
-        <v>1.038076154532121</v>
+        <v>1.034468362177435</v>
       </c>
       <c r="L19">
-        <v>1.016379512549807</v>
+        <v>1.037624261541678</v>
       </c>
       <c r="M19">
-        <v>1.0168789252021</v>
+        <v>1.044937851583256</v>
       </c>
       <c r="N19">
-        <v>1.00915228209781</v>
+        <v>1.014548446271726</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9867260423099669</v>
+        <v>1.025141717190557</v>
       </c>
       <c r="D20">
-        <v>1.023897747806695</v>
+        <v>1.030982039052842</v>
       </c>
       <c r="E20">
-        <v>1.001385077257909</v>
+        <v>1.034037130288206</v>
       </c>
       <c r="F20">
-        <v>1.001653234802728</v>
+        <v>1.041320125277296</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044707562531118</v>
+        <v>1.034337787385419</v>
       </c>
       <c r="J20">
-        <v>1.014778419502631</v>
+        <v>1.031411837034849</v>
       </c>
       <c r="K20">
-        <v>1.037533008731582</v>
+        <v>1.034373203789121</v>
       </c>
       <c r="L20">
-        <v>1.015403615396807</v>
+        <v>1.037417542398757</v>
       </c>
       <c r="M20">
-        <v>1.015667076228499</v>
+        <v>1.044675184481098</v>
       </c>
       <c r="N20">
-        <v>1.008873143253319</v>
+        <v>1.01449200420556</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9817293991037074</v>
+        <v>1.024188190650611</v>
       </c>
       <c r="D21">
-        <v>1.021137765220443</v>
+        <v>1.030461916181553</v>
       </c>
       <c r="E21">
-        <v>0.9971404485325024</v>
+        <v>1.033155011993704</v>
       </c>
       <c r="F21">
-        <v>0.9966165257781772</v>
+        <v>1.040257685057415</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043337825875535</v>
+        <v>1.034161002814315</v>
       </c>
       <c r="J21">
-        <v>1.012011378481377</v>
+        <v>1.030860185524814</v>
       </c>
       <c r="K21">
-        <v>1.035729444853054</v>
+        <v>1.034062787521798</v>
       </c>
       <c r="L21">
-        <v>1.012176199266881</v>
+        <v>1.036745770310543</v>
       </c>
       <c r="M21">
-        <v>1.011662283895923</v>
+        <v>1.04382204950302</v>
       </c>
       <c r="N21">
-        <v>1.007948585642834</v>
+        <v>1.014308380773835</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9785181716975616</v>
+        <v>1.023589167859819</v>
       </c>
       <c r="D22">
-        <v>1.019368468662544</v>
+        <v>1.030134890957142</v>
       </c>
       <c r="E22">
-        <v>0.9944205752474656</v>
+        <v>1.032601329123402</v>
       </c>
       <c r="F22">
-        <v>0.9933888201855341</v>
+        <v>1.039590993239998</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04244674471168</v>
+        <v>1.034048402559022</v>
       </c>
       <c r="J22">
-        <v>1.010231061229284</v>
+        <v>1.03051314310817</v>
       </c>
       <c r="K22">
-        <v>1.034565755451253</v>
+        <v>1.033866820488014</v>
       </c>
       <c r="L22">
-        <v>1.010103377889669</v>
+        <v>1.036323631081691</v>
       </c>
       <c r="M22">
-        <v>1.009092393458037</v>
+        <v>1.043286286896923</v>
       </c>
       <c r="N22">
-        <v>1.007353718653727</v>
+        <v>1.014192835961965</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9802273060510376</v>
+        <v>1.023906673562217</v>
       </c>
       <c r="D23">
-        <v>1.020309694138731</v>
+        <v>1.030308252883729</v>
       </c>
       <c r="E23">
-        <v>0.9958674179065962</v>
+        <v>1.032894757231604</v>
       </c>
       <c r="F23">
-        <v>0.9951058415191752</v>
+        <v>1.039944294771631</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04292200469572</v>
+        <v>1.034108231128614</v>
       </c>
       <c r="J23">
-        <v>1.011178787253059</v>
+        <v>1.030697135161333</v>
       </c>
       <c r="K23">
-        <v>1.035185518446778</v>
+        <v>1.033970781343597</v>
       </c>
       <c r="L23">
-        <v>1.011206467786782</v>
+        <v>1.036547392777377</v>
       </c>
       <c r="M23">
-        <v>1.010459804448717</v>
+        <v>1.043570243886726</v>
       </c>
       <c r="N23">
-        <v>1.00767038714833</v>
+        <v>1.014254097170602</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9868086747707545</v>
+        <v>1.025157711510954</v>
       </c>
       <c r="D24">
-        <v>1.023943457611826</v>
+        <v>1.030990758781311</v>
       </c>
       <c r="E24">
-        <v>1.001455403526134</v>
+        <v>1.034051934927063</v>
       </c>
       <c r="F24">
-        <v>1.00173668181662</v>
+        <v>1.041337959250347</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044730030653249</v>
+        <v>1.034340726579504</v>
       </c>
       <c r="J24">
-        <v>1.014824143462425</v>
+        <v>1.031421082115649</v>
       </c>
       <c r="K24">
-        <v>1.037562753342114</v>
+        <v>1.034378394369816</v>
       </c>
       <c r="L24">
-        <v>1.015457008763327</v>
+        <v>1.037428808557082</v>
       </c>
       <c r="M24">
-        <v>1.015733367862208</v>
+        <v>1.044689498092975</v>
       </c>
       <c r="N24">
-        <v>1.008888420828138</v>
+        <v>1.014495081060684</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9941618712893791</v>
+        <v>1.026611587579345</v>
       </c>
       <c r="D25">
-        <v>1.028018611527173</v>
+        <v>1.03178268890264</v>
       </c>
       <c r="E25">
-        <v>1.007730965693606</v>
+        <v>1.035398811075491</v>
       </c>
       <c r="F25">
-        <v>1.009183114612151</v>
+        <v>1.042960860740722</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046702767557972</v>
+        <v>1.034604187544703</v>
       </c>
       <c r="J25">
-        <v>1.018887321890849</v>
+        <v>1.032260284023784</v>
       </c>
       <c r="K25">
-        <v>1.040197005246901</v>
+        <v>1.03484789720708</v>
       </c>
       <c r="L25">
-        <v>1.020210442215066</v>
+        <v>1.038452601715854</v>
       </c>
       <c r="M25">
-        <v>1.021640527733452</v>
+        <v>1.045991054232116</v>
       </c>
       <c r="N25">
-        <v>1.010245959403809</v>
+        <v>1.014774308091626</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_70/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_70/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027772848844516</v>
+        <v>0.9998168464793282</v>
       </c>
       <c r="D2">
-        <v>1.03241419393604</v>
+        <v>1.031161172152431</v>
       </c>
       <c r="E2">
-        <v>1.036476268768222</v>
+        <v>1.012581471836578</v>
       </c>
       <c r="F2">
-        <v>1.044259761674375</v>
+        <v>1.014939277531429</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034809181180663</v>
+        <v>1.048179834016747</v>
       </c>
       <c r="J2">
-        <v>1.032928861695017</v>
+        <v>1.022003037017076</v>
       </c>
       <c r="K2">
-        <v>1.035219493614367</v>
+        <v>1.042202803232243</v>
       </c>
       <c r="L2">
-        <v>1.039269901277221</v>
+        <v>1.023868265916684</v>
       </c>
       <c r="M2">
-        <v>1.047031313507817</v>
+        <v>1.026194335118062</v>
       </c>
       <c r="N2">
-        <v>1.014996663321528</v>
+        <v>1.01128677621193</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028616961481953</v>
+        <v>1.003809836911263</v>
       </c>
       <c r="D3">
-        <v>1.032872608063823</v>
+        <v>1.033383396656799</v>
       </c>
       <c r="E3">
-        <v>1.037260420819911</v>
+        <v>1.016019787000012</v>
       </c>
       <c r="F3">
-        <v>1.045205447183924</v>
+        <v>1.019020384974377</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034955026496421</v>
+        <v>1.049198557953362</v>
       </c>
       <c r="J3">
-        <v>1.033413842314216</v>
+        <v>1.024197178016039</v>
       </c>
       <c r="K3">
-        <v>1.035487612770188</v>
+        <v>1.043606231474199</v>
       </c>
       <c r="L3">
-        <v>1.039863730229342</v>
+        <v>1.026451714161053</v>
       </c>
       <c r="M3">
-        <v>1.047787849765716</v>
+        <v>1.029415545958472</v>
       </c>
       <c r="N3">
-        <v>1.015157899109492</v>
+        <v>1.012019599697081</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029163582686708</v>
+        <v>1.00634393785603</v>
       </c>
       <c r="D4">
-        <v>1.033169167823498</v>
+        <v>1.034794675832629</v>
       </c>
       <c r="E4">
-        <v>1.037768653031377</v>
+        <v>1.018207845468703</v>
       </c>
       <c r="F4">
-        <v>1.045818547608878</v>
+        <v>1.021618009391753</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035048005445274</v>
+        <v>1.049833518924473</v>
       </c>
       <c r="J4">
-        <v>1.033727434590059</v>
+        <v>1.025586745496127</v>
       </c>
       <c r="K4">
-        <v>1.035660312548436</v>
+        <v>1.04449054133655</v>
       </c>
       <c r="L4">
-        <v>1.040248153200057</v>
+        <v>1.028091374413668</v>
       </c>
       <c r="M4">
-        <v>1.048277933184906</v>
+        <v>1.031462341682014</v>
       </c>
       <c r="N4">
-        <v>1.015262127956719</v>
+        <v>1.012483625539726</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029393482237638</v>
+        <v>1.007397766367283</v>
       </c>
       <c r="D5">
-        <v>1.033293824113352</v>
+        <v>1.035381725246945</v>
       </c>
       <c r="E5">
-        <v>1.037982511688944</v>
+        <v>1.019119173522091</v>
       </c>
       <c r="F5">
-        <v>1.046076575488493</v>
+        <v>1.022700063280156</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035086759504164</v>
+        <v>1.050094748982404</v>
       </c>
       <c r="J5">
-        <v>1.033859214299629</v>
+        <v>1.026163880877007</v>
       </c>
       <c r="K5">
-        <v>1.035732724825057</v>
+        <v>1.044856705301604</v>
       </c>
       <c r="L5">
-        <v>1.040409805400067</v>
+        <v>1.028773239741248</v>
       </c>
       <c r="M5">
-        <v>1.048484095337457</v>
+        <v>1.032314094596993</v>
       </c>
       <c r="N5">
-        <v>1.015305921036701</v>
+        <v>1.012676330963518</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029432089204633</v>
+        <v>1.007574044572101</v>
       </c>
       <c r="D6">
-        <v>1.033314753374892</v>
+        <v>1.035479930390403</v>
       </c>
       <c r="E6">
-        <v>1.038018431050853</v>
+        <v>1.019271696816185</v>
       </c>
       <c r="F6">
-        <v>1.046119915901433</v>
+        <v>1.022881168746008</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035093246852837</v>
+        <v>1.050138278534942</v>
       </c>
       <c r="J6">
-        <v>1.033881337463225</v>
+        <v>1.026260377009862</v>
       </c>
       <c r="K6">
-        <v>1.035744871944146</v>
+        <v>1.044917860238405</v>
       </c>
       <c r="L6">
-        <v>1.040436949868474</v>
+        <v>1.028887297228981</v>
       </c>
       <c r="M6">
-        <v>1.048518718512773</v>
+        <v>1.032456603886537</v>
       </c>
       <c r="N6">
-        <v>1.01531327262497</v>
+        <v>1.012708549743278</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029166654224695</v>
+        <v>1.006358063896897</v>
       </c>
       <c r="D7">
-        <v>1.033170833557864</v>
+        <v>1.034802544417246</v>
       </c>
       <c r="E7">
-        <v>1.03777150984598</v>
+        <v>1.018220055853946</v>
       </c>
       <c r="F7">
-        <v>1.045821994290162</v>
+        <v>1.021632506656279</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035048524593534</v>
+        <v>1.049837031801709</v>
       </c>
       <c r="J7">
-        <v>1.033729195652562</v>
+        <v>1.025594484620949</v>
       </c>
       <c r="K7">
-        <v>1.035661280875803</v>
+        <v>1.044495455913315</v>
       </c>
       <c r="L7">
-        <v>1.040250313046092</v>
+        <v>1.028100514519403</v>
       </c>
       <c r="M7">
-        <v>1.048280687420512</v>
+        <v>1.031473756762807</v>
       </c>
       <c r="N7">
-        <v>1.0152627132197</v>
+        <v>1.012486209716228</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028058032002591</v>
+        <v>1.00117680344502</v>
       </c>
       <c r="D8">
-        <v>1.032569129414199</v>
+        <v>1.031917779553685</v>
       </c>
       <c r="E8">
-        <v>1.036741103053617</v>
+        <v>1.013751243921142</v>
       </c>
       <c r="F8">
-        <v>1.044579115438718</v>
+        <v>1.01632764368679</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034858758137451</v>
+        <v>1.048529188065731</v>
       </c>
       <c r="J8">
-        <v>1.03309280854505</v>
+        <v>1.022750924123601</v>
       </c>
       <c r="K8">
-        <v>1.035310268799668</v>
+        <v>1.042682087418316</v>
       </c>
       <c r="L8">
-        <v>1.039470551321519</v>
+        <v>1.024748112688449</v>
       </c>
       <c r="M8">
-        <v>1.047286872883848</v>
+        <v>1.027290897009589</v>
       </c>
       <c r="N8">
-        <v>1.015051174466124</v>
+        <v>1.011536578814203</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026107809944087</v>
+        <v>0.9916489529853993</v>
       </c>
       <c r="D9">
-        <v>1.031508437500422</v>
+        <v>1.026624358142826</v>
       </c>
       <c r="E9">
-        <v>1.034931851745287</v>
+        <v>1.005582394699163</v>
       </c>
       <c r="F9">
-        <v>1.04239810700035</v>
+        <v>1.006633625982475</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034513737184858</v>
+        <v>1.046034767469879</v>
       </c>
       <c r="J9">
-        <v>1.031969760662109</v>
+        <v>1.017500094380941</v>
       </c>
       <c r="K9">
-        <v>1.034685737287288</v>
+        <v>1.039299753154235</v>
       </c>
       <c r="L9">
-        <v>1.038097917901567</v>
+        <v>1.01858554610386</v>
       </c>
       <c r="M9">
-        <v>1.045539953623766</v>
+        <v>1.019619986325563</v>
       </c>
       <c r="N9">
-        <v>1.014677657871808</v>
+        <v>1.009782496937911</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024809976376596</v>
+        <v>0.9850034349145376</v>
       </c>
       <c r="D10">
-        <v>1.030801145996034</v>
+        <v>1.022945329275076</v>
       </c>
       <c r="E10">
-        <v>1.033730125511061</v>
+        <v>0.9999199844514236</v>
       </c>
       <c r="F10">
-        <v>1.040950323381812</v>
+        <v>0.9999147859303005</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034276629016784</v>
+        <v>1.044237777183085</v>
       </c>
       <c r="J10">
-        <v>1.031220021493878</v>
+        <v>1.013824947864108</v>
       </c>
       <c r="K10">
-        <v>1.0342654228818</v>
+        <v>1.036912299134187</v>
       </c>
       <c r="L10">
-        <v>1.037183853731219</v>
+        <v>1.014290683754005</v>
       </c>
       <c r="M10">
-        <v>1.044378327774678</v>
+        <v>1.014285579113951</v>
       </c>
       <c r="N10">
-        <v>1.014428162516623</v>
+        <v>1.008554560760294</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02424856737909</v>
+        <v>0.9820499363378531</v>
       </c>
       <c r="D11">
-        <v>1.03049486620263</v>
+        <v>1.021314572195589</v>
       </c>
       <c r="E11">
-        <v>1.033210839209928</v>
+        <v>0.9974122827163592</v>
       </c>
       <c r="F11">
-        <v>1.040324914207925</v>
+        <v>0.9969390996855619</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0341722867394</v>
+        <v>1.043426326590555</v>
       </c>
       <c r="J11">
-        <v>1.03089514411232</v>
+        <v>1.012189005957202</v>
       </c>
       <c r="K11">
-        <v>1.034082498906558</v>
+        <v>1.035845418289829</v>
       </c>
       <c r="L11">
-        <v>1.036788313539685</v>
+        <v>1.012383165149983</v>
       </c>
       <c r="M11">
-        <v>1.043876058288975</v>
+        <v>1.011918971883161</v>
       </c>
       <c r="N11">
-        <v>1.014320018762774</v>
+        <v>1.00800793730016</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024040120890731</v>
+        <v>0.9809408926494378</v>
       </c>
       <c r="D12">
-        <v>1.030381099508879</v>
+        <v>1.020702979929465</v>
       </c>
       <c r="E12">
-        <v>1.033018115466568</v>
+        <v>0.9964720152191382</v>
       </c>
       <c r="F12">
-        <v>1.040092835066327</v>
+        <v>0.9958233143321282</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03413327889193</v>
+        <v>1.043119767564702</v>
       </c>
       <c r="J12">
-        <v>1.030774436000151</v>
+        <v>1.011574359271767</v>
       </c>
       <c r="K12">
-        <v>1.034014415105991</v>
+        <v>1.035444008870595</v>
       </c>
       <c r="L12">
-        <v>1.036641432035025</v>
+        <v>1.011667119419342</v>
       </c>
       <c r="M12">
-        <v>1.043689603045707</v>
+        <v>1.011030972907585</v>
       </c>
       <c r="N12">
-        <v>1.014279833165258</v>
+        <v>1.007802561901519</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024084829463673</v>
+        <v>0.9811793381320001</v>
       </c>
       <c r="D13">
-        <v>1.030405502853239</v>
+        <v>1.020834436741066</v>
       </c>
       <c r="E13">
-        <v>1.033059447991714</v>
+        <v>0.996674110589017</v>
       </c>
       <c r="F13">
-        <v>1.040142606590366</v>
+        <v>0.9960631369799682</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034141657528723</v>
+        <v>1.04318576092983</v>
       </c>
       <c r="J13">
-        <v>1.030800329828167</v>
+        <v>1.011706523971915</v>
       </c>
       <c r="K13">
-        <v>1.034029025522518</v>
+        <v>1.035530346855742</v>
       </c>
       <c r="L13">
-        <v>1.036672936797002</v>
+        <v>1.011821058863333</v>
       </c>
       <c r="M13">
-        <v>1.043729593326032</v>
+        <v>1.011221862854471</v>
       </c>
       <c r="N13">
-        <v>1.014288453838222</v>
+        <v>1.007846722858944</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024231335368438</v>
+        <v>0.9819585103269266</v>
       </c>
       <c r="D14">
-        <v>1.030485462216124</v>
+        <v>1.021264138397272</v>
       </c>
       <c r="E14">
-        <v>1.033194905284325</v>
+        <v>0.9973347417691558</v>
       </c>
       <c r="F14">
-        <v>1.040305725860131</v>
+        <v>0.9968470854257238</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034169067443355</v>
+        <v>1.043401092232597</v>
       </c>
       <c r="J14">
-        <v>1.030885167032736</v>
+        <v>1.012138343287845</v>
       </c>
       <c r="K14">
-        <v>1.034076873879793</v>
+        <v>1.035812343054433</v>
       </c>
       <c r="L14">
-        <v>1.036776171450446</v>
+        <v>1.012324131703111</v>
       </c>
       <c r="M14">
-        <v>1.043860643587556</v>
+        <v>1.011845754331317</v>
       </c>
       <c r="N14">
-        <v>1.014316697336596</v>
+        <v>1.007991009103412</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02432161390577</v>
+        <v>0.982436978446217</v>
       </c>
       <c r="D15">
-        <v>1.030534727778472</v>
+        <v>1.021528109853034</v>
       </c>
       <c r="E15">
-        <v>1.033278386551201</v>
+        <v>0.9977406004099506</v>
       </c>
       <c r="F15">
-        <v>1.040406258980832</v>
+        <v>0.997328697075179</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034185922430823</v>
+        <v>1.043533078149912</v>
       </c>
       <c r="J15">
-        <v>1.030937433539406</v>
+        <v>1.012403466938208</v>
       </c>
       <c r="K15">
-        <v>1.034106336624914</v>
+        <v>1.035985406824582</v>
       </c>
       <c r="L15">
-        <v>1.036839783032478</v>
+        <v>1.01263308650099</v>
       </c>
       <c r="M15">
-        <v>1.043941402601064</v>
+        <v>1.012228957833828</v>
       </c>
       <c r="N15">
-        <v>1.014334096955231</v>
+        <v>1.008079596295732</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024847247196788</v>
+        <v>0.9851978007241268</v>
       </c>
       <c r="D16">
-        <v>1.03082147256653</v>
+        <v>1.023052746657231</v>
       </c>
       <c r="E16">
-        <v>1.033764611501533</v>
+        <v>1.000085201753958</v>
       </c>
       <c r="F16">
-        <v>1.04099186128221</v>
+        <v>1.000110830996986</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034283518697185</v>
+        <v>1.044290916179861</v>
       </c>
       <c r="J16">
-        <v>1.03124157767697</v>
+        <v>1.013932556568586</v>
       </c>
       <c r="K16">
-        <v>1.034277543563697</v>
+        <v>1.036982394585341</v>
       </c>
       <c r="L16">
-        <v>1.037210109930252</v>
+        <v>1.014416244805125</v>
       </c>
       <c r="M16">
-        <v>1.044411677090403</v>
+        <v>1.014441412782463</v>
       </c>
       <c r="N16">
-        <v>1.014435337367254</v>
+        <v>1.00859051616644</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025177114426662</v>
+        <v>0.9869088656171903</v>
       </c>
       <c r="D17">
-        <v>1.031001336581337</v>
+        <v>1.023998882943316</v>
       </c>
       <c r="E17">
-        <v>1.034069894986957</v>
+        <v>1.001540679014265</v>
       </c>
       <c r="F17">
-        <v>1.041359594442688</v>
+        <v>1.001837867056416</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034344290981414</v>
+        <v>1.044757264591227</v>
       </c>
       <c r="J17">
-        <v>1.031432297072347</v>
+        <v>1.014879581497866</v>
       </c>
       <c r="K17">
-        <v>1.034384690398811</v>
+        <v>1.037598814480167</v>
       </c>
       <c r="L17">
-        <v>1.037442475586061</v>
+        <v>1.015521748366121</v>
       </c>
       <c r="M17">
-        <v>1.044706862264334</v>
+        <v>1.015813748361336</v>
       </c>
       <c r="N17">
-        <v>1.014498813488832</v>
+        <v>1.008906944113229</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025369574480304</v>
+        <v>0.9878996137411935</v>
       </c>
       <c r="D18">
-        <v>1.031106246360416</v>
+        <v>1.02454712285878</v>
       </c>
       <c r="E18">
-        <v>1.034248064717185</v>
+        <v>1.002384275124793</v>
       </c>
       <c r="F18">
-        <v>1.041574230688373</v>
+        <v>1.002838848863528</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034379576961378</v>
+        <v>1.045026070682907</v>
       </c>
       <c r="J18">
-        <v>1.031543517680019</v>
+        <v>1.015427684199645</v>
       </c>
       <c r="K18">
-        <v>1.034447097993535</v>
+        <v>1.037955178925927</v>
       </c>
       <c r="L18">
-        <v>1.037578035116905</v>
+        <v>1.016161979399361</v>
       </c>
       <c r="M18">
-        <v>1.044879108360109</v>
+        <v>1.016608759342271</v>
       </c>
       <c r="N18">
-        <v>1.014535827334923</v>
+        <v>1.009090078341843</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025435207513673</v>
+        <v>0.9882362140428078</v>
       </c>
       <c r="D19">
-        <v>1.031142017509452</v>
+        <v>1.024733449186621</v>
       </c>
       <c r="E19">
-        <v>1.034308833416449</v>
+        <v>1.002671022525569</v>
       </c>
       <c r="F19">
-        <v>1.041647440425863</v>
+        <v>1.003179092450567</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034391581155457</v>
+        <v>1.045117186779852</v>
       </c>
       <c r="J19">
-        <v>1.031581437131885</v>
+        <v>1.015613855381179</v>
       </c>
       <c r="K19">
-        <v>1.034468362177435</v>
+        <v>1.03807615453212</v>
       </c>
       <c r="L19">
-        <v>1.037624261541678</v>
+        <v>1.016379512549807</v>
       </c>
       <c r="M19">
-        <v>1.044937851583256</v>
+        <v>1.016878925202099</v>
       </c>
       <c r="N19">
-        <v>1.014548446271726</v>
+        <v>1.00915228209781</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025141717190557</v>
+        <v>0.9867260423099661</v>
       </c>
       <c r="D20">
-        <v>1.030982039052842</v>
+        <v>1.023897747806695</v>
       </c>
       <c r="E20">
-        <v>1.034037130288206</v>
+        <v>1.001385077257909</v>
       </c>
       <c r="F20">
-        <v>1.041320125277296</v>
+        <v>1.001653234802728</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034337787385419</v>
+        <v>1.044707562531117</v>
       </c>
       <c r="J20">
-        <v>1.031411837034849</v>
+        <v>1.01477841950263</v>
       </c>
       <c r="K20">
-        <v>1.034373203789121</v>
+        <v>1.037533008731582</v>
       </c>
       <c r="L20">
-        <v>1.037417542398757</v>
+        <v>1.015403615396806</v>
       </c>
       <c r="M20">
-        <v>1.044675184481098</v>
+        <v>1.015667076228498</v>
       </c>
       <c r="N20">
-        <v>1.01449200420556</v>
+        <v>1.008873143253319</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024188190650611</v>
+        <v>0.9817293991037059</v>
       </c>
       <c r="D21">
-        <v>1.030461916181553</v>
+        <v>1.021137765220443</v>
       </c>
       <c r="E21">
-        <v>1.033155011993704</v>
+        <v>0.9971404485325012</v>
       </c>
       <c r="F21">
-        <v>1.040257685057415</v>
+        <v>0.9966165257781759</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034161002814315</v>
+        <v>1.043337825875534</v>
       </c>
       <c r="J21">
-        <v>1.030860185524814</v>
+        <v>1.012011378481375</v>
       </c>
       <c r="K21">
-        <v>1.034062787521798</v>
+        <v>1.035729444853053</v>
       </c>
       <c r="L21">
-        <v>1.036745770310543</v>
+        <v>1.01217619926688</v>
       </c>
       <c r="M21">
-        <v>1.04382204950302</v>
+        <v>1.011662283895922</v>
       </c>
       <c r="N21">
-        <v>1.014308380773835</v>
+        <v>1.007948585642833</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023589167859819</v>
+        <v>0.9785181716975609</v>
       </c>
       <c r="D22">
-        <v>1.030134890957142</v>
+        <v>1.019368468662543</v>
       </c>
       <c r="E22">
-        <v>1.032601329123402</v>
+        <v>0.9944205752474647</v>
       </c>
       <c r="F22">
-        <v>1.039590993239998</v>
+        <v>0.9933888201855334</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034048402559022</v>
+        <v>1.042446744711679</v>
       </c>
       <c r="J22">
-        <v>1.03051314310817</v>
+        <v>1.010231061229283</v>
       </c>
       <c r="K22">
-        <v>1.033866820488014</v>
+        <v>1.034565755451252</v>
       </c>
       <c r="L22">
-        <v>1.036323631081691</v>
+        <v>1.010103377889669</v>
       </c>
       <c r="M22">
-        <v>1.043286286896923</v>
+        <v>1.009092393458036</v>
       </c>
       <c r="N22">
-        <v>1.014192835961965</v>
+        <v>1.007353718653727</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023906673562217</v>
+        <v>0.9802273060510373</v>
       </c>
       <c r="D23">
-        <v>1.030308252883729</v>
+        <v>1.020309694138731</v>
       </c>
       <c r="E23">
-        <v>1.032894757231604</v>
+        <v>0.9958674179065959</v>
       </c>
       <c r="F23">
-        <v>1.039944294771631</v>
+        <v>0.9951058415191752</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034108231128614</v>
+        <v>1.04292200469572</v>
       </c>
       <c r="J23">
-        <v>1.030697135161333</v>
+        <v>1.011178787253059</v>
       </c>
       <c r="K23">
-        <v>1.033970781343597</v>
+        <v>1.035185518446778</v>
       </c>
       <c r="L23">
-        <v>1.036547392777377</v>
+        <v>1.011206467786781</v>
       </c>
       <c r="M23">
-        <v>1.043570243886726</v>
+        <v>1.010459804448717</v>
       </c>
       <c r="N23">
-        <v>1.014254097170602</v>
+        <v>1.00767038714833</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025157711510954</v>
+        <v>0.9868086747707535</v>
       </c>
       <c r="D24">
-        <v>1.030990758781311</v>
+        <v>1.023943457611826</v>
       </c>
       <c r="E24">
-        <v>1.034051934927063</v>
+        <v>1.001455403526133</v>
       </c>
       <c r="F24">
-        <v>1.041337959250347</v>
+        <v>1.001736681816619</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034340726579504</v>
+        <v>1.044730030653248</v>
       </c>
       <c r="J24">
-        <v>1.031421082115649</v>
+        <v>1.014824143462425</v>
       </c>
       <c r="K24">
-        <v>1.034378394369816</v>
+        <v>1.037562753342113</v>
       </c>
       <c r="L24">
-        <v>1.037428808557082</v>
+        <v>1.015457008763325</v>
       </c>
       <c r="M24">
-        <v>1.044689498092975</v>
+        <v>1.015733367862207</v>
       </c>
       <c r="N24">
-        <v>1.014495081060684</v>
+        <v>1.008888420828137</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026611587579345</v>
+        <v>0.9941618712893784</v>
       </c>
       <c r="D25">
-        <v>1.03178268890264</v>
+        <v>1.028018611527173</v>
       </c>
       <c r="E25">
-        <v>1.035398811075491</v>
+        <v>1.007730965693605</v>
       </c>
       <c r="F25">
-        <v>1.042960860740722</v>
+        <v>1.009183114612151</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034604187544703</v>
+        <v>1.046702767557972</v>
       </c>
       <c r="J25">
-        <v>1.032260284023784</v>
+        <v>1.018887321890849</v>
       </c>
       <c r="K25">
-        <v>1.03484789720708</v>
+        <v>1.040197005246901</v>
       </c>
       <c r="L25">
-        <v>1.038452601715854</v>
+        <v>1.020210442215065</v>
       </c>
       <c r="M25">
-        <v>1.045991054232116</v>
+        <v>1.021640527733452</v>
       </c>
       <c r="N25">
-        <v>1.014774308091626</v>
+        <v>1.010245959403809</v>
       </c>
     </row>
   </sheetData>
